--- a/va_facility_data_2025-02-20/Rainbow City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rainbow%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rainbow City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rainbow%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2995b58a62ed478a92779509c6ccf5a8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf0461f292b524866a2dee2ebf35605c3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5d61700c87f74ba5bff416deb3c5c0af"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdc4b84eefa5044a09df829c4c0f3bc85"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb83a822e167c45789f3027f414fb3d31"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R38f3784867c14667b0627120adb69bb4"/>
   </x:sheets>
 </x:workbook>
 </file>
